--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/08,25/28,08,25 ПОКОМ КИ филиалы/дв 28,08,25 днрсч пок ки.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/08,25/28,08,25 ПОКОМ КИ филиалы/дв 28,08,25 днрсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\28,08,25 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\08,25\28,08,25 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE428654-A8C4-4150-8019-09A9A6870200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7906D-885A-4AC5-9C59-47BDD082E97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,6 +492,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / 02,06,25 в уценку 8шт.</t>
     </r>
@@ -512,6 +514,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>/ 09,12,24 в уценку 498кг</t>
     </r>
@@ -535,6 +539,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>/ 11,03,25 списание 7кг (недостача) / 22,01,25 списание 10кг (недостача)</t>
     </r>
@@ -558,6 +564,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / 20,01,25 в уценку 20кг</t>
     </r>
@@ -578,6 +586,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / 25,05,25 в уценку 56шт.</t>
     </r>
@@ -630,17 +640,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1090,7 +1106,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/08,25/28,08,25 ПОКОМ КИ филиалы/дв 28,08,25 днрсч пок ки.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/08,25/28,08,25 ПОКОМ КИ филиалы/дв 28,08,25 днрсч пок ки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\08,25\28,08,25 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7906D-885A-4AC5-9C59-47BDD082E97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347AB41F-2084-413A-87DB-AD7B2CBB3A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
